--- a/DonneeTest_FFD4.xlsx
+++ b/DonneeTest_FFD4.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,25 +403,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -429,82 +429,137 @@
     </row>
     <row r="3" spans="1:9">
       <c r="C3">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="C4">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="C5">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="C6">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10">
-        <v>149</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="C12">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="C13">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="C14">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="C16">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18">
-        <v>61</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
